--- a/Examples/ExcelProcessor.Examples.Reader/Resources/ReaderExample.xlsx
+++ b/Examples/ExcelProcessor.Examples.Reader/Resources/ReaderExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MiDevOps\ExcelProcessor\Examples\ExcelProcessor.Examples.Reader\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C6E89-1854-4997-B1EE-48CDE1295351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E228E5-312C-43AC-B958-EC7D8B4D76BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>File for parser example</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Generated at</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Pedro Jose</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Inmaculada</t>
+  </si>
+  <si>
+    <t>Amat</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>Isidoro</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Marcela</t>
+  </si>
+  <si>
+    <t>Prado</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +99,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +147,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +463,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.87890625" customWidth="1"/>
+    <col min="2" max="2" width="17.64453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45407.461967592593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>